--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4004.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4004.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.452691512834882</v>
+        <v>3.589741468429565</v>
       </c>
       <c r="B1">
-        <v>2.571001490578876</v>
+        <v>4.617850303649902</v>
       </c>
       <c r="C1">
-        <v>3.290396762121943</v>
+        <v>6.742213726043701</v>
       </c>
       <c r="D1">
-        <v>3.750924907950521</v>
+        <v>7.840402126312256</v>
       </c>
       <c r="E1">
-        <v>1.855363896214259</v>
+        <v>5.075840950012207</v>
       </c>
     </row>
   </sheetData>
